--- a/List of occupations on susbtantive green transition practices and communication of green images.xlsx
+++ b/List of occupations on susbtantive green transition practices and communication of green images.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Green transition\results\jmp\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chens\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A619A88-4F94-4DB0-960B-53CDE3C699DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423B85DE-F033-4C16-8BB5-C02488E8D85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="414">
   <si>
     <t>Efforts</t>
   </si>
@@ -1263,27 +1262,6 @@
   </si>
   <si>
     <t>53-7081.00</t>
-  </si>
-  <si>
-    <t>Variable name</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Type of green transition efforts this occupation contributes to. The value can be Walk or Talk. Walk refers to substantive green transition efforts, Talk refers to communication of green firms images.</t>
-  </si>
-  <si>
-    <t>O*NET Title of the occupation in the O*NET-SOC 2010 version.</t>
-  </si>
-  <si>
-    <t>O*NET Code of the occupation in the O*NET-SOC 2010 version.</t>
-  </si>
-  <si>
-    <t>This dataset is created by Shuang Chen in her working paper "Green Investors and Firm Green Transition Efforts: Talk the Talk or Walk the Walk?". The 204 occupations in this dataset are defined as green occupations by the U.S. Department of Labor. I further separate them by their contribution to the environment.</t>
-  </si>
-  <si>
-    <t>Dummy variable indicating whether workers employed in this occupation are always related to the environment or depend on context. If they are always related to the environment, the value is 1, otherwise, the value is 0.</t>
   </si>
 </sst>
 </file>
@@ -1348,24 +1326,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1670,19 +1636,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1710,7 +1676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1724,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1752,7 +1718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1766,7 +1732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1780,7 +1746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1794,7 +1760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1808,7 +1774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1822,7 +1788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +1802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1864,7 +1830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1878,7 +1844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1892,7 +1858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +1872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1920,7 +1886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1934,7 +1900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1948,7 +1914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1962,7 +1928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1976,7 +1942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1990,7 +1956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2004,7 +1970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -2018,7 +1984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2032,7 +1998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2046,7 +2012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2060,7 +2026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2074,7 +2040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -2088,7 +2054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2102,7 +2068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2116,7 +2082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2130,7 +2096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2144,7 +2110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2158,7 +2124,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2172,7 +2138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2186,7 +2152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2200,7 +2166,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2214,7 +2180,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2228,7 +2194,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2242,7 +2208,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2256,7 +2222,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2270,7 +2236,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2250,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2298,7 +2264,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2312,7 +2278,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -2326,7 +2292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2340,7 +2306,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2354,7 +2320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -2368,7 +2334,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -2382,7 +2348,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2396,7 +2362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -2410,7 +2376,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -2424,7 +2390,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2404,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -2452,7 +2418,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -2466,7 +2432,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -2480,7 +2446,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -2494,7 +2460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -2508,7 +2474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -2522,7 +2488,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -2536,7 +2502,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -2550,7 +2516,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -2564,7 +2530,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -2578,7 +2544,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -2592,7 +2558,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -2606,7 +2572,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>41</v>
       </c>
@@ -2620,7 +2586,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -2634,7 +2600,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -2648,7 +2614,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>41</v>
       </c>
@@ -2662,7 +2628,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>41</v>
       </c>
@@ -2676,7 +2642,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -2690,7 +2656,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>41</v>
       </c>
@@ -2704,7 +2670,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>41</v>
       </c>
@@ -2718,7 +2684,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -2732,7 +2698,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>41</v>
       </c>
@@ -2746,7 +2712,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>41</v>
       </c>
@@ -2760,7 +2726,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -2774,7 +2740,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -2788,7 +2754,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>41</v>
       </c>
@@ -2802,7 +2768,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>41</v>
       </c>
@@ -2816,7 +2782,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -2830,7 +2796,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -2844,7 +2810,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -2858,7 +2824,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -2872,7 +2838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>41</v>
       </c>
@@ -2886,7 +2852,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>41</v>
       </c>
@@ -2900,7 +2866,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -2914,7 +2880,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -2928,7 +2894,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -2942,7 +2908,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -2956,7 +2922,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -2970,7 +2936,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -2984,7 +2950,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -2998,7 +2964,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -3012,7 +2978,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -3026,7 +2992,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>41</v>
       </c>
@@ -3040,7 +3006,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>41</v>
       </c>
@@ -3054,7 +3020,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>41</v>
       </c>
@@ -3068,7 +3034,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>41</v>
       </c>
@@ -3082,7 +3048,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -3096,7 +3062,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -3110,7 +3076,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -3124,7 +3090,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>41</v>
       </c>
@@ -3138,7 +3104,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -3152,7 +3118,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -3166,7 +3132,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>41</v>
       </c>
@@ -3180,7 +3146,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>41</v>
       </c>
@@ -3194,7 +3160,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>41</v>
       </c>
@@ -3208,7 +3174,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>41</v>
       </c>
@@ -3222,7 +3188,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>41</v>
       </c>
@@ -3236,7 +3202,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>41</v>
       </c>
@@ -3250,7 +3216,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -3264,7 +3230,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>41</v>
       </c>
@@ -3278,7 +3244,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>41</v>
       </c>
@@ -3292,7 +3258,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -3306,7 +3272,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>41</v>
       </c>
@@ -3320,7 +3286,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>41</v>
       </c>
@@ -3334,7 +3300,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>41</v>
       </c>
@@ -3348,7 +3314,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>41</v>
       </c>
@@ -3362,7 +3328,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>41</v>
       </c>
@@ -3376,7 +3342,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>41</v>
       </c>
@@ -3390,7 +3356,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>41</v>
       </c>
@@ -3404,7 +3370,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -3418,7 +3384,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>41</v>
       </c>
@@ -3432,7 +3398,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>41</v>
       </c>
@@ -3446,7 +3412,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>41</v>
       </c>
@@ -3460,7 +3426,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>41</v>
       </c>
@@ -3474,7 +3440,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>41</v>
       </c>
@@ -3488,7 +3454,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>41</v>
       </c>
@@ -3502,7 +3468,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>41</v>
       </c>
@@ -3516,7 +3482,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>41</v>
       </c>
@@ -3530,7 +3496,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>41</v>
       </c>
@@ -3544,7 +3510,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -3558,7 +3524,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>41</v>
       </c>
@@ -3572,7 +3538,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -3586,7 +3552,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>41</v>
       </c>
@@ -3600,7 +3566,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>41</v>
       </c>
@@ -3614,7 +3580,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>41</v>
       </c>
@@ -3628,7 +3594,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>41</v>
       </c>
@@ -3642,7 +3608,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -3656,7 +3622,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>41</v>
       </c>
@@ -3670,7 +3636,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>41</v>
       </c>
@@ -3684,7 +3650,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>41</v>
       </c>
@@ -3698,7 +3664,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>41</v>
       </c>
@@ -3712,7 +3678,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>41</v>
       </c>
@@ -3726,7 +3692,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>41</v>
       </c>
@@ -3740,7 +3706,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>41</v>
       </c>
@@ -3754,7 +3720,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>41</v>
       </c>
@@ -3768,7 +3734,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>41</v>
       </c>
@@ -3782,7 +3748,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -3796,7 +3762,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>41</v>
       </c>
@@ -3810,7 +3776,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>41</v>
       </c>
@@ -3824,7 +3790,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A154" s="2" t="s">
         <v>41</v>
       </c>
@@ -3838,7 +3804,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>41</v>
       </c>
@@ -3852,7 +3818,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>41</v>
       </c>
@@ -3866,7 +3832,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>41</v>
       </c>
@@ -3880,7 +3846,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>41</v>
       </c>
@@ -3894,7 +3860,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>41</v>
       </c>
@@ -3908,7 +3874,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>41</v>
       </c>
@@ -3922,7 +3888,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>41</v>
       </c>
@@ -3936,7 +3902,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>41</v>
       </c>
@@ -3950,7 +3916,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>41</v>
       </c>
@@ -3964,7 +3930,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>41</v>
       </c>
@@ -3978,7 +3944,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -3992,7 +3958,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>41</v>
       </c>
@@ -4006,7 +3972,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>41</v>
       </c>
@@ -4020,7 +3986,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>41</v>
       </c>
@@ -4034,7 +4000,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>41</v>
       </c>
@@ -4048,7 +4014,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>41</v>
       </c>
@@ -4062,7 +4028,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>41</v>
       </c>
@@ -4076,7 +4042,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>41</v>
       </c>
@@ -4090,7 +4056,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>41</v>
       </c>
@@ -4104,7 +4070,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>41</v>
       </c>
@@ -4118,7 +4084,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>41</v>
       </c>
@@ -4132,7 +4098,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>41</v>
       </c>
@@ -4146,7 +4112,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>41</v>
       </c>
@@ -4160,7 +4126,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>41</v>
       </c>
@@ -4174,7 +4140,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>41</v>
       </c>
@@ -4188,7 +4154,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>41</v>
       </c>
@@ -4202,7 +4168,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>41</v>
       </c>
@@ -4216,7 +4182,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>41</v>
       </c>
@@ -4230,7 +4196,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>41</v>
       </c>
@@ -4244,7 +4210,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>41</v>
       </c>
@@ -4258,7 +4224,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>41</v>
       </c>
@@ -4272,7 +4238,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>41</v>
       </c>
@@ -4286,7 +4252,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>41</v>
       </c>
@@ -4300,7 +4266,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>41</v>
       </c>
@@ -4314,7 +4280,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>41</v>
       </c>
@@ -4328,7 +4294,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>41</v>
       </c>
@@ -4342,7 +4308,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>41</v>
       </c>
@@ -4356,7 +4322,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>41</v>
       </c>
@@ -4370,7 +4336,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>41</v>
       </c>
@@ -4384,7 +4350,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>41</v>
       </c>
@@ -4398,7 +4364,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>41</v>
       </c>
@@ -4412,7 +4378,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -4426,7 +4392,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>41</v>
       </c>
@@ -4440,7 +4406,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>41</v>
       </c>
@@ -4454,7 +4420,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -4468,7 +4434,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>41</v>
       </c>
@@ -4482,7 +4448,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>41</v>
       </c>
@@ -4496,7 +4462,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>41</v>
       </c>
@@ -4510,7 +4476,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>41</v>
       </c>
@@ -4524,7 +4490,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>41</v>
       </c>
@@ -4538,7 +4504,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A205" s="2" t="s">
         <v>41</v>
       </c>
@@ -4555,73 +4521,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8318386-0F08-4889-825D-33D15F21B8E5}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="63" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>